--- a/neptune/drop_times.xlsx
+++ b/neptune/drop_times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baskausj/github/vandycite/neptune/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39C7E95-8CAA-5740-A145-52798D07EB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E03963-078D-134D-B609-6D8FB2D0B2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="2840" windowWidth="18700" windowHeight="14780" xr2:uid="{9591172A-D140-7B4D-9077-DB148CD3BF7F}"/>
+    <workbookView xWindow="9740" yWindow="9980" windowWidth="18700" windowHeight="14780" xr2:uid="{9591172A-D140-7B4D-9077-DB148CD3BF7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1435,7 +1435,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
